--- a/config_11.24/permission_server_config.xlsx
+++ b/config_11.24/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="1899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="1903">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8817,62 +8817,91 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>actp_own_task_p_029_hlqjd_hammer</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋活动使用锤子（V1以上，非新玩家）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年11月23日23:59:59结束</t>
+  </si>
+  <si>
+    <t>2020年11月23日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xrqtl_new</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不展示给cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_type = xxx 的活动排行榜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj关闭累计赢金榜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_leijiyingjin_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chd_new</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>周常活动新人展示位置</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_new_player</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_new_player</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>tag_type</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>tag_new_player</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_029_hlqjd_hammer</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋活动使用锤子（V1以上，非新玩家）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年11月23日23:59:59结束</t>
-  </si>
-  <si>
-    <t>2020年11月23日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_xrqtl_new</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>now</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不展示给cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_type = xxx 的活动排行榜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj关闭累计赢金榜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>day_delay</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_leijiyingjin_rank</t>
+    <t>是新玩家</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9677,11 +9706,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q408"/>
+  <dimension ref="A1:Q412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C380" sqref="C380"/>
+      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A412" sqref="A412:C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14032,6 +14061,21 @@
         <v>91</v>
       </c>
     </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" s="27" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B410" s="27" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C410" s="3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412" s="27"/>
+      <c r="B412" s="27"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14045,7 +14089,7 @@
   <dimension ref="A1:O342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G308" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D260" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="L334" sqref="L334"/>
@@ -14230,7 +14274,7 @@
         <v>1515</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -23897,7 +23941,7 @@
         <v>1605542400</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23931,7 +23975,7 @@
         <v>1605542400</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23965,7 +24009,7 @@
         <v>1605542400</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -23976,10 +24020,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="79" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -23999,7 +24043,7 @@
         <v>1605542400</v>
       </c>
       <c r="L292" s="109" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -25211,7 +25255,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -25294,7 +25338,7 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="D333" s="26" t="s">
         <v>1874</v>
@@ -25309,7 +25353,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -25326,10 +25370,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -25405,10 +25449,10 @@
   <dimension ref="A1:I864"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C712" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C823" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E731" sqref="E731"/>
+      <selection pane="bottomRight" activeCell="A856" sqref="A856:XFD856"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44667,10 +44711,10 @@
         <v>330</v>
       </c>
       <c r="C835" s="53" t="s">
-        <v>1884</v>
+        <v>1066</v>
       </c>
       <c r="D835" s="53" t="s">
-        <v>1885</v>
+        <v>1899</v>
       </c>
       <c r="E835" s="9">
         <v>5</v>
@@ -45119,7 +45163,7 @@
         <v>1046</v>
       </c>
       <c r="D854" s="14" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="E854" s="14">
         <v>5</v>
@@ -45128,13 +45172,35 @@
         <v>1</v>
       </c>
       <c r="G854" s="14" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="855" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G855" s="10"/>
+      <c r="A855" s="8">
+        <v>854</v>
+      </c>
+      <c r="B855" s="8">
+        <v>339</v>
+      </c>
+      <c r="C855" s="10" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D855" s="10" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E855" s="8">
+        <v>2</v>
+      </c>
+      <c r="F855" s="8">
+        <v>1</v>
+      </c>
+      <c r="G855" s="10" t="s">
+        <v>1902</v>
+      </c>
     </row>
     <row r="856" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C856" s="10"/>
+      <c r="D856" s="10"/>
       <c r="G856" s="10"/>
     </row>
     <row r="857" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -45384,7 +45450,7 @@
         <v>898</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="E9">
         <v>2</v>
